--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_26.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1369328.428862914</v>
+        <v>1431109.427146495</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.9342484451</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6652066.649697832</v>
+        <v>6652066.649697829</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>35.13062034519336</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>144.1511975109677</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>64.58216279976261</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>53.17878903537623</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -899,13 +899,13 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>242.9135310235002</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -962,7 +962,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>257.091055539935</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1114,7 +1114,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>32.43393787379242</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>335.8915546016272</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1139,10 +1139,10 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>64.87482326404232</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1294,10 +1294,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>102.2535846903331</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>18.64034175572537</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>33.08339867820243</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225723</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1585,7 +1585,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855473</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.84692347866419</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>71.43430199953212</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1771,7 +1771,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>162.9119051916203</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>103.8284742946041</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>236.840797123438</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1904,10 +1904,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>215.611122386456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864833</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2008,7 +2008,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.55329631630673</v>
+        <v>6.133574646794441</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>154.4380635245692</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2147,7 +2147,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>136.6047512078524</v>
       </c>
     </row>
     <row r="21">
@@ -2245,19 +2245,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>123.7760609888577</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225706</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2533,7 +2533,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>35.51678257079493</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2719,16 +2719,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>156.0275385056716</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -2764,7 +2764,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>205.9555570933295</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>154.742939422464</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>101.7706336613763</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3013,7 +3013,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3190,13 +3190,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>124.0599116349196</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>54.49360828358985</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
@@ -3205,7 +3205,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556927</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3329,7 +3329,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864833</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -3427,7 +3427,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>108.3408915168849</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3442,7 +3442,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>13.99728392830468</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800586</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772998</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932877</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3518,10 +3518,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112158</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313376</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.8153550780013</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556917</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561532</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3566,10 +3566,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864823</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.203262463343</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888232</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3670,16 +3670,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3715,7 +3715,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>253.4167637250773</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3806,7 +3806,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633445</v>
       </c>
     </row>
     <row r="42">
@@ -3898,19 +3898,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>115.7595572938005</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>52.5117099198484</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -3952,7 +3952,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -4135,13 +4135,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>111.5309907175803</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>443.0234284442651</v>
+        <v>980.7537922278715</v>
       </c>
       <c r="C2" t="n">
-        <v>408.9213596680925</v>
+        <v>542.6113194112947</v>
       </c>
       <c r="D2" t="n">
-        <v>377.0519788829411</v>
+        <v>507.1258443151398</v>
       </c>
       <c r="E2" t="n">
-        <v>347.3176380816403</v>
+        <v>477.391503513839</v>
       </c>
       <c r="F2" t="n">
-        <v>323.4906125312521</v>
+        <v>49.52407392304679</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>49.52407392304679</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>49.52407392304679</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>524.3060841805649</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1132.008730489126</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1739.711376797688</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797688</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756282</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>2235.297000382378</v>
       </c>
       <c r="U2" t="n">
-        <v>1393.464329137293</v>
+        <v>2235.297000382378</v>
       </c>
       <c r="V2" t="n">
-        <v>1030.847379071119</v>
+        <v>2235.297000382378</v>
       </c>
       <c r="W2" t="n">
-        <v>1030.032328522557</v>
+        <v>1830.441545793411</v>
       </c>
       <c r="X2" t="n">
-        <v>610.8898651018675</v>
+        <v>1411.299082372722</v>
       </c>
       <c r="Y2" t="n">
-        <v>465.2825948887688</v>
+        <v>1407.053362712779</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397431</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="J3" t="n">
-        <v>60.00734176206595</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="K3" t="n">
-        <v>480.0602407069692</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="L3" t="n">
-        <v>480.0602407069692</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="M3" t="n">
-        <v>480.0602407069692</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="N3" t="n">
-        <v>480.0602407069692</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>656.8099308587483</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.8381257054811</v>
+        <v>899.603321627118</v>
       </c>
       <c r="C4" t="n">
-        <v>187.8381257054811</v>
+        <v>727.041610110343</v>
       </c>
       <c r="D4" t="n">
-        <v>187.8381257054811</v>
+        <v>561.1636173118657</v>
       </c>
       <c r="E4" t="n">
-        <v>187.8381257054811</v>
+        <v>391.4056135626029</v>
       </c>
       <c r="F4" t="n">
-        <v>187.8381257054811</v>
+        <v>214.6985595243591</v>
       </c>
       <c r="G4" t="n">
-        <v>187.8381257054811</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>135.6869697148767</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>410.4454242860122</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>828.6553060539734</v>
       </c>
       <c r="M4" t="n">
-        <v>930.0072868842942</v>
+        <v>1288.139173234886</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1519.995309448884</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1939.664558674666</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2287.171452645007</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>2401.648278988757</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>2123.215278241863</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>1836.259770112293</v>
       </c>
       <c r="W4" t="n">
-        <v>433.2298803720686</v>
+        <v>1564.233365698585</v>
       </c>
       <c r="X4" t="n">
-        <v>187.8381257054811</v>
+        <v>1318.841611031997</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.8381257054811</v>
+        <v>1091.421940346105</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>367.3910961563706</v>
+        <v>981.4316298953097</v>
       </c>
       <c r="C5" t="n">
-        <v>333.289027380198</v>
+        <v>947.329561119137</v>
       </c>
       <c r="D5" t="n">
-        <v>87.92182432615731</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E5" t="n">
-        <v>58.18748352485655</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1217.893900270473</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V5" t="n">
-        <v>1217.893900270473</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W5" t="n">
-        <v>813.0384456815061</v>
+        <v>1682.521194649326</v>
       </c>
       <c r="X5" t="n">
-        <v>393.8959822608168</v>
+        <v>1263.378731228637</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6502626008743</v>
+        <v>1003.690796339813</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>604.8041211489747</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>604.8041211489747</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8041211489747</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>538.7332355342593</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>958.7861344791625</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1349.676536110076</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>1675.765608785789</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U7" t="n">
-        <v>1397.332608038895</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>1110.377099909325</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>1077.615546501454</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>832.2237918348665</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>604.8041211489747</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.8023488251938</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C8" t="n">
-        <v>930.7002800490212</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>898.8308992638698</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>465.056154422165</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>37.18872483137273</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>37.18872483137273</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>37.18872483137273</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>36.77193545851274</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>304.2846042752947</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>759.3373055743897</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873485</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.44270817258</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925637</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925637</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925637</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1475.979822859463</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1410.44969835033</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>991.3072349296401</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>987.0615152696976</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864478</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761164</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230027</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>36.77193545851274</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>36.77193545851274</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>36.77193545851274</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>36.77193545851274</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>36.77193545851274</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>217.6808149456965</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>672.7335162447916</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>883.4805487048088</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>710.9188371880338</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>607.6323880058791</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>607.6323880058791</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>430.9253339676353</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>265.3340589934629</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838374</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232026</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>123.3516206232026</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>541.5615023911637</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>996.6142036902587</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1250.734748835523</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1670.403998061304</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.403998061304</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1592.717326504092</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1592.717326504092</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1592.717326504092</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1320.690922090384</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1075.299167423796</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1075.299167423796</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.958394689265</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.815921872688</v>
+        <v>1814.51439535199</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.906137047133</v>
+        <v>1378.604610526434</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.131392205428</v>
+        <v>944.8298656847296</v>
       </c>
       <c r="F11" t="n">
-        <v>787.2639626146356</v>
+        <v>516.9624360939374</v>
       </c>
       <c r="G11" t="n">
-        <v>385.866131237899</v>
+        <v>115.5646047172013</v>
       </c>
       <c r="H11" t="n">
         <v>96.73597668111518</v>
@@ -5048,43 +5048,43 @@
         <v>96.73597668111518</v>
       </c>
       <c r="M11" t="n">
-        <v>1186.925458503958</v>
+        <v>1253.783811891666</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940405</v>
+        <v>2379.514795328113</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510712</v>
+        <v>3359.694461898419</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4188.004336731816</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302702</v>
+        <v>4734.50312269041</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4803.381259633332</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4803.381259633332</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.158956950349</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.542006884175</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W11" t="n">
-        <v>3776.686552295208</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.544088874519</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.257965174173</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>96.73597668111518</v>
       </c>
       <c r="I12" t="n">
-        <v>96.73597668111518</v>
+        <v>96.77217639691919</v>
       </c>
       <c r="J12" t="n">
-        <v>96.73597668111518</v>
+        <v>421.3305013631315</v>
       </c>
       <c r="K12" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L12" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M12" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N12" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580463</v>
+        <v>947.2320137580464</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412712</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D13" t="n">
         <v>608.792309442794</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935312</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F13" t="n">
         <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111506</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H13" t="n">
         <v>96.73597668111518</v>
@@ -5224,16 +5224,16 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119686</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.843970372791</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>1883.888462243222</v>
       </c>
       <c r="W13" t="n">
         <v>1611.862057829513</v>
@@ -5242,7 +5242,7 @@
         <v>1366.470303162925</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477033</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.958394689264</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.815921872688</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>787.263962614635</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111518</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I14" t="n">
         <v>96.73597668111518</v>
@@ -5288,40 +5288,40 @@
         <v>1253.783811891666</v>
       </c>
       <c r="N14" t="n">
-        <v>2379.514795328113</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O14" t="n">
-        <v>3359.694461898419</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P14" t="n">
-        <v>4188.004336731816</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q14" t="n">
-        <v>4734.50312269041</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4764.22618407731</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T14" t="n">
-        <v>4544.158956950349</v>
+        <v>4616.731606928797</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.158956950349</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.542006884175</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.686552295208</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.544088874519</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.257965174172</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="15">
@@ -5352,22 +5352,22 @@
         <v>96.73597668111518</v>
       </c>
       <c r="I15" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>96.73597668111518</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="K15" t="n">
-        <v>96.73597668111518</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="L15" t="n">
-        <v>96.73597668111518</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="M15" t="n">
-        <v>96.73597668111518</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="N15" t="n">
-        <v>96.73597668111518</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="O15" t="n">
         <v>282.3408549543107</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580464</v>
+        <v>1030.691439225644</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412713</v>
+        <v>858.1297277088689</v>
       </c>
       <c r="D16" t="n">
-        <v>608.792309442794</v>
+        <v>692.2517349103917</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935313</v>
+        <v>527.694254918856</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552875</v>
+        <v>350.9872008806122</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
         <v>96.73597668111518</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881911</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T16" t="n">
-        <v>2449.276971119685</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.84397037279</v>
+        <v>2254.303395840388</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.888462243221</v>
+        <v>1967.347887710819</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.862057829513</v>
+        <v>1695.32148329711</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.470303162925</v>
+        <v>1449.929728630523</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.050632477034</v>
+        <v>1222.510057944631</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2523.375184062124</v>
       </c>
       <c r="C17" t="n">
-        <v>2085.232711245547</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D17" t="n">
         <v>1649.322926419992</v>
@@ -5501,10 +5501,10 @@
         <v>1215.548181578287</v>
       </c>
       <c r="F17" t="n">
-        <v>787.6807519874947</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2829206107585</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H17" t="n">
         <v>97.15276605397517</v>
@@ -5513,28 +5513,28 @@
         <v>96.73597668111518</v>
       </c>
       <c r="J17" t="n">
-        <v>352.5751665457805</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K17" t="n">
-        <v>1186.925458503958</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="L17" t="n">
-        <v>1186.925458503958</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="M17" t="n">
-        <v>1186.925458503958</v>
+        <v>1253.783811891666</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940405</v>
+        <v>2379.514795328113</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.836108510712</v>
+        <v>3359.694461898419</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344108</v>
+        <v>4188.004336731816</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302702</v>
+        <v>4734.50312269041</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
@@ -5552,13 +5552,13 @@
         <v>3994.89235417964</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.103341668068</v>
+        <v>3590.036899590673</v>
       </c>
       <c r="X17" t="n">
-        <v>3357.960878247378</v>
+        <v>3170.894436169984</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.674754547032</v>
+        <v>2762.608312469637</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>96.73597668111518</v>
       </c>
       <c r="I18" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>96.73597668111518</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L18" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M18" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N18" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P18" t="n">
         <v>1102.064021433509</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>947.2320137580464</v>
+        <v>1006.036133543734</v>
       </c>
       <c r="C19" t="n">
-        <v>774.6703022412713</v>
+        <v>833.4744220269588</v>
       </c>
       <c r="D19" t="n">
-        <v>608.792309442794</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="E19" t="n">
-        <v>439.0343056935313</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F19" t="n">
-        <v>262.3272516552875</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73597668111518</v>
+        <v>325.2981002160654</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I19" t="n">
         <v>96.73597668111518</v>
@@ -5695,28 +5695,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S19" t="n">
-        <v>2554.154217881911</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.274771460366</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U19" t="n">
-        <v>2029.841770713471</v>
+        <v>2008.423949418843</v>
       </c>
       <c r="V19" t="n">
-        <v>1742.886262583902</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W19" t="n">
-        <v>1470.859858170194</v>
+        <v>1449.442036875565</v>
       </c>
       <c r="X19" t="n">
-        <v>1225.468103503606</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y19" t="n">
-        <v>1139.050632477034</v>
+        <v>1197.854752262721</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2522.958394689264</v>
+        <v>2522.958394689265</v>
       </c>
       <c r="C20" t="n">
         <v>2084.815921872688</v>
@@ -5738,40 +5738,40 @@
         <v>1215.131392205427</v>
       </c>
       <c r="F20" t="n">
-        <v>787.263962614635</v>
+        <v>787.2639626146351</v>
       </c>
       <c r="G20" t="n">
         <v>385.8661312378989</v>
       </c>
       <c r="H20" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J20" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K20" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="L20" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="M20" t="n">
         <v>1253.783811891666</v>
       </c>
       <c r="N20" t="n">
-        <v>2379.514795328113</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O20" t="n">
-        <v>3359.694461898419</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344109</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302703</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R20" t="n">
         <v>4836.798834055759</v>
@@ -5780,22 +5780,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112635</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429652</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363478</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.385025774512</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X20" t="n">
         <v>3087.242562353822</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653476</v>
+        <v>2949.257965174173</v>
       </c>
     </row>
     <row r="21">
@@ -5823,28 +5823,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I21" t="n">
-        <v>96.73597668111519</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J21" t="n">
-        <v>96.73597668111519</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K21" t="n">
-        <v>96.73597668111519</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L21" t="n">
-        <v>96.73597668111519</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M21" t="n">
-        <v>96.73597668111519</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N21" t="n">
-        <v>96.73597668111519</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P21" t="n">
         <v>1102.064021433509</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.2320137580465</v>
+        <v>965.4711828007308</v>
       </c>
       <c r="C22" t="n">
-        <v>774.6703022412714</v>
+        <v>792.9094712839558</v>
       </c>
       <c r="D22" t="n">
-        <v>608.792309442794</v>
+        <v>627.0314784854785</v>
       </c>
       <c r="E22" t="n">
-        <v>439.0343056935313</v>
+        <v>627.0314784854785</v>
       </c>
       <c r="F22" t="n">
-        <v>262.3272516552875</v>
+        <v>450.3244244472347</v>
       </c>
       <c r="G22" t="n">
-        <v>96.73597668111519</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111519</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J22" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
@@ -5935,25 +5935,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2695.15641754123</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T22" t="n">
-        <v>2449.276971119686</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U22" t="n">
-        <v>2170.843970372791</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V22" t="n">
-        <v>1883.888462243222</v>
+        <v>1902.127631285906</v>
       </c>
       <c r="W22" t="n">
-        <v>1611.862057829513</v>
+        <v>1630.101226872197</v>
       </c>
       <c r="X22" t="n">
-        <v>1366.470303162926</v>
+        <v>1384.70947220561</v>
       </c>
       <c r="Y22" t="n">
-        <v>1139.050632477034</v>
+        <v>1157.289801519718</v>
       </c>
     </row>
     <row r="23">
@@ -5987,10 +5987,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L23" t="n">
         <v>306.120802776629</v>
@@ -6063,25 +6063,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1041.416826573036</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>868.8551150562606</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>702.9771222577833</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>533.2191185085205</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>356.5120644702768</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961044</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176948</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008509</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1978.073275058211</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1706.046870644502</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1460.655115977915</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1233.235445292023</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6300,25 +6300,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1041.416826573035</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C28" t="n">
-        <v>868.8551150562604</v>
+        <v>831.011584890604</v>
       </c>
       <c r="D28" t="n">
-        <v>702.9771222577831</v>
+        <v>665.1335920921267</v>
       </c>
       <c r="E28" t="n">
-        <v>533.2191185085204</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F28" t="n">
-        <v>356.5120644702766</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G28" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
         <v>190.9207894961043</v>
@@ -6412,22 +6412,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2351.643165215687</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2073.210164468792</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1786.254656339223</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W28" t="n">
-        <v>1514.228251925515</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1268.836497258927</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y28" t="n">
-        <v>1041.416826573035</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6467,22 +6467,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>1177.320806523639</v>
+        <v>1021.773653488281</v>
       </c>
       <c r="M29" t="n">
-        <v>2334.36864173419</v>
+        <v>2178.821488698832</v>
       </c>
       <c r="N29" t="n">
-        <v>3460.099625170637</v>
+        <v>3304.552472135279</v>
       </c>
       <c r="O29" t="n">
-        <v>4440.279291740943</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P29" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6537,25 +6537,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6601,7 +6601,7 @@
         <v>920.0973401405613</v>
       </c>
       <c r="D31" t="n">
-        <v>754.219347342084</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E31" t="n">
         <v>584.4613435928212</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2594.704009018975</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2594.704009018975</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2316.27100827208</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V31" t="n">
-        <v>2029.315500142511</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W31" t="n">
-        <v>1757.289095728802</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.897341062215</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.477670376324</v>
+        <v>1248.965051073967</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L32" t="n">
-        <v>306.120802776629</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.16863798718</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6774,22 +6774,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O33" t="n">
         <v>287.8657185439749</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>970.9960463903952</v>
+        <v>970.9960463903955</v>
       </c>
       <c r="C34" t="n">
-        <v>798.4343348736202</v>
+        <v>798.4343348736203</v>
       </c>
       <c r="D34" t="n">
-        <v>798.4343348736202</v>
+        <v>632.556342075143</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258803</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6901,7 +6901,7 @@
         <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>1162.814665109382</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6953,31 +6953,31 @@
         <v>4440.279291740943</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
         <v>2955.199618136696</v>
@@ -7011,25 +7011,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1036.216302815309</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>863.6545912985335</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674087</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>673.121292818146</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176948</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T37" t="n">
-        <v>2538.261260176948</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U37" t="n">
-        <v>2259.828259430053</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V37" t="n">
-        <v>1972.872751300484</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>1700.846346886775</v>
+        <v>1845.949044954128</v>
       </c>
       <c r="X37" t="n">
-        <v>1455.454592220188</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1228.034921534296</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436395</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7178,43 +7178,43 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>306.120802776629</v>
+        <v>852.6195887352246</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.16863798718</v>
+        <v>2009.667423945775</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>3135.398407382223</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>4115.578073952529</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
         <v>2955.199618136696</v>
@@ -7248,25 +7248,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1004.611946844417</v>
+        <v>811.7546776883927</v>
       </c>
       <c r="C40" t="n">
-        <v>832.0502353276418</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D40" t="n">
-        <v>666.1722425291646</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E40" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7333,13 +7333,13 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745664</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
         <v>1783.551532113124</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755404</v>
+        <v>2313.799635050032</v>
       </c>
       <c r="U40" t="n">
-        <v>2036.405284740174</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V40" t="n">
-        <v>1749.449776610604</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W40" t="n">
-        <v>1477.423372196896</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X40" t="n">
-        <v>1232.031617530308</v>
+        <v>1230.992967093272</v>
       </c>
       <c r="Y40" t="n">
-        <v>1004.611946844417</v>
+        <v>1003.57329640738</v>
       </c>
     </row>
     <row r="41">
@@ -7409,49 +7409,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>306.120802776629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>306.120802776629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L41" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M41" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
         <v>2955.199618136696</v>
@@ -7485,25 +7485,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
         <v>1107.588885023173</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1068.769857140659</v>
+        <v>790.3368563937646</v>
       </c>
       <c r="C43" t="n">
-        <v>896.2081456238838</v>
+        <v>790.3368563937646</v>
       </c>
       <c r="D43" t="n">
-        <v>730.3301528254065</v>
+        <v>624.4588635952873</v>
       </c>
       <c r="E43" t="n">
-        <v>560.5721490761437</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F43" t="n">
-        <v>383.8650950378999</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
         <v>190.9207894961043</v>
@@ -7600,19 +7600,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2292.381813755403</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V43" t="n">
-        <v>2005.426305625834</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W43" t="n">
-        <v>1733.399901212125</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X43" t="n">
-        <v>1488.008146545538</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y43" t="n">
-        <v>1260.588475859646</v>
+        <v>982.1554751127517</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
         <v>1654.847790009657</v>
@@ -7652,46 +7652,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
-        <v>306.120802776629</v>
+        <v>475.2748675296863</v>
       </c>
       <c r="M44" t="n">
-        <v>1463.16863798718</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
         <v>1107.588885023173</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>811.754677688392</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C46" t="n">
-        <v>811.754677688392</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D46" t="n">
-        <v>645.8766848899147</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E46" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F46" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7831,25 +7831,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W46" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7985,19 +7985,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>479.9987875054325</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773349</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8052,13 +8052,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>262.4693064538401</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>401.6418166099314</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8143,10 +8143,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>117.6925219988882</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>234.1981173878764</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8155,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,25 +8374,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>394.8387895261749</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8459,19 +8459,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>270.2148169866484</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314092</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314092</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,13 +8526,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>182.7362419062463</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>459.6491932314092</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314092</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,22 +8611,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314092</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>256.687419338651</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1101.201496790751</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>103.3290013791402</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.03656536949900158</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8936,7 +8936,7 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>1069.568313180545</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>103.3290013791402</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,10 +9000,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>161.152732437109</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>828.0031984638366</v>
@@ -9161,16 +9161,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>258.4234241057226</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>103.3290013791402</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9410,13 +9410,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>1069.568313180545</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>769.1429509552418</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318197</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10127,7 +10127,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,16 +10346,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>1105.865833350039</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -10370,7 +10370,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,10 +10422,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>828.0031984638366</v>
@@ -10601,7 +10601,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>679.5583048465023</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463125</v>
+        <v>757.9381297620657</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10841,7 +10841,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>205.9191540463125</v>
+        <v>376.7818457160674</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.5985112554905</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.73195639979893</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>139.5921776627266</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>10.96843159933717</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>185.1957776566211</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>5.148518520149764</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>139.5921776627252</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>185.1957776566207</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>185.195777656621</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>139.5921776627261</v>
+        <v>219.0118993322384</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>267.5985112554895</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>267.5985112554907</v>
       </c>
     </row>
     <row r="21">
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>40.15930123557292</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627262</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>248.5691704774789</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>12.03288520609854</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>37.46509486399975</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>35.15749310933323</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>55.87832135360702</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>44.00051207685051</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>120.4463752142715</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>55.8783213536076</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>229.4233680290246</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>139.592177662725</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>22.23190701434842</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,19 +25786,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>52.3008664179696</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>111.4236523045822</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>56.5294329941898</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>556076.2877688439</v>
+        <v>556076.287768844</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>556076.287768844</v>
+        <v>556076.2877688439</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>556076.2877688439</v>
+        <v>556076.2877688442</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>556076.287768844</v>
+        <v>556076.2877688439</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>579543.3425510876</v>
+        <v>579543.3425510875</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>579543.3425510876</v>
+        <v>579543.3425510875</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>579543.3425510874</v>
+        <v>579543.3425510875</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>579543.3425510876</v>
+        <v>579543.3425510875</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>579543.3425510876</v>
+        <v>579543.3425510875</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>579543.3425510876</v>
+        <v>579543.3425510875</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348495.7579287654</v>
+        <v>348495.7579287655</v>
       </c>
       <c r="C2" t="n">
         <v>348495.7579287654</v>
       </c>
       <c r="D2" t="n">
-        <v>348495.7579287655</v>
+        <v>348495.7579287653</v>
       </c>
       <c r="E2" t="n">
-        <v>328590.5336815896</v>
+        <v>328590.5336815898</v>
       </c>
       <c r="F2" t="n">
         <v>328590.5336815896</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039031</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.5443739065</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200262</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520274</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283946</v>
+        <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856134</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784502</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509851</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104677</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169168.0932697598</v>
+        <v>125788.3839715077</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="D4" t="n">
-        <v>161077.0551897631</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>773.6821211687732</v>
+        <v>773.6821211687734</v>
       </c>
       <c r="F4" t="n">
-        <v>773.6821211687732</v>
+        <v>773.6821211687733</v>
       </c>
       <c r="G4" t="n">
-        <v>773.6821211687322</v>
+        <v>773.6821211687734</v>
       </c>
       <c r="H4" t="n">
-        <v>773.6821211687734</v>
+        <v>773.6821211687733</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
@@ -26442,19 +26442,19 @@
         <v>806.3323907826023</v>
       </c>
       <c r="K4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>806.3323907825613</v>
+        <v>806.3323907825614</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907826432</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.332390782541</v>
       </c>
       <c r="P4" t="n">
         <v>806.3323907826023</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814195</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846968</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764752</v>
@@ -26485,7 +26485,7 @@
         <v>73519.34227764752</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22288.42413792665</v>
+        <v>-53954.01880478727</v>
       </c>
       <c r="C6" t="n">
-        <v>119902.8765217832</v>
+        <v>143438.2827748506</v>
       </c>
       <c r="D6" t="n">
-        <v>114862.6251185301</v>
+        <v>160778.827148757</v>
       </c>
       <c r="E6" t="n">
-        <v>30498.21553074587</v>
+        <v>92485.87551786225</v>
       </c>
       <c r="F6" t="n">
-        <v>254297.5092827734</v>
+        <v>254220.9507279765</v>
       </c>
       <c r="G6" t="n">
-        <v>254297.5092827733</v>
+        <v>254220.9507279764</v>
       </c>
       <c r="H6" t="n">
-        <v>254297.5092827733</v>
+        <v>254220.9507279765</v>
       </c>
       <c r="I6" t="n">
-        <v>245568.1430598643</v>
+        <v>245544.9187204816</v>
       </c>
       <c r="J6" t="n">
-        <v>152918.3933477136</v>
+        <v>103301.8048677077</v>
       </c>
       <c r="K6" t="n">
-        <v>263932.8586927038</v>
+        <v>250095.6257854761</v>
       </c>
       <c r="L6" t="n">
-        <v>254985.2476041939</v>
+        <v>263909.6343533211</v>
       </c>
       <c r="M6" t="n">
-        <v>77141.87208223622</v>
+        <v>128919.6897403178</v>
       </c>
       <c r="N6" t="n">
-        <v>263932.8586927037</v>
+        <v>263909.6343533212</v>
       </c>
       <c r="O6" t="n">
-        <v>263932.8586927038</v>
+        <v>263909.6343533213</v>
       </c>
       <c r="P6" t="n">
-        <v>263932.8586927038</v>
+        <v>263909.6343533211</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052212</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080547</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052212</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825302</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052212</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>396.4200666321066</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>260.0520649523754</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>73.92098976676661</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>190.241862921953</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,13 +27619,13 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>188.6371559537997</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27670,10 +27670,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>147.1122069234081</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,7 +27834,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>236.872202495779</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>86.14502017843148</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27859,10 +27859,10 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>335.9320767790347</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28014,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>61.9656281801594</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28062,13 +28062,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34705,19 +34705,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>479.9987875054325</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773349</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,13 +34772,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>262.4693064538401</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>401.6418166099314</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M4" t="n">
-        <v>117.6925219988882</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>234.1981173878764</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N7" t="n">
-        <v>394.8387895261749</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35179,19 +35179,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>270.2148169866484</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314092</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314092</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>182.7362419062463</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>459.6491932314092</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314092</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35331,22 +35331,22 @@
         <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314092</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>256.687419338651</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35416,7 +35416,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1101.201496790751</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>103.3290013791402</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.03656536949900158</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35656,7 +35656,7 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>1069.568313180545</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>103.3290013791402</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>161.152732437109</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35738,7 +35738,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>828.0031984638366</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>258.4234241057226</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>103.3290013791402</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36130,13 +36130,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>1069.568313180545</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>769.1429509552418</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,10 +36449,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36835,7 +36835,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318197</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -36847,13 +36847,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>-6.786426882829224e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>1105.865833350039</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -37090,7 +37090,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37160,7 +37160,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>828.0031984638366</v>
@@ -37321,7 +37321,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>679.5583048465023</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37546,7 +37546,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463125</v>
+        <v>757.9381297620657</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37561,7 +37561,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>170.862691669754</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908071</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38020,7 +38020,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>205.9191540463125</v>
+        <v>376.7818457160674</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,10 +38108,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38187,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
